--- a/CTCF_Analysis_NewPeakCalling/Proportion_Overlap_Tables/LTC99_NA_P.xlsx
+++ b/CTCF_Analysis_NewPeakCalling/Proportion_Overlap_Tables/LTC99_NA_P.xlsx
@@ -396,19 +396,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.6302597037145197</v>
+        <v>0.5422105533076935</v>
       </c>
       <c r="C2">
-        <v>53610862</v>
+        <v>64202487</v>
       </c>
       <c r="D2">
-        <v>12151461</v>
+        <v>15215241</v>
       </c>
       <c r="E2">
-        <v>89682</v>
+        <v>73979</v>
       </c>
       <c r="F2">
-        <v>66.8383845141723</v>
+        <v>68.3788642722935</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +418,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.4332007097571427</v>
+        <v>0.6092491437525592</v>
       </c>
       <c r="C3">
-        <v>77997947</v>
+        <v>57137981</v>
       </c>
       <c r="D3">
-        <v>23876928</v>
+        <v>11961482</v>
       </c>
       <c r="E3">
-        <v>111493</v>
+        <v>77701</v>
       </c>
       <c r="F3">
-        <v>53.76301651224741</v>
+        <v>65.10340922253252</v>
       </c>
     </row>
   </sheetData>
